--- a/reconstruction-tools-assessment/supplementary material/S15_table.xlsx
+++ b/reconstruction-tools-assessment/supplementary material/S15_table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Research_Projects\Review_reconstruction\manuscript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Research_Projects\Review_reconstruction\manuscript\supplementary material\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1306B616-95DC-4CD0-9B33-060DD511CCBC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9402"/>
+    <workbookView xWindow="4140" yWindow="984" windowWidth="17280" windowHeight="9444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S15 Table" sheetId="1" r:id="rId1"/>
@@ -84,7 +85,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -167,11 +171,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -181,9 +182,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,11 +496,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C4" sqref="C4:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -518,124 +517,124 @@
     </row>
     <row r="2" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="3" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>32</v>
-      </c>
-      <c r="C4" s="5">
-        <v>30.76923076923077</v>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4">
+        <v>30.612244897959183</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>25</v>
-      </c>
-      <c r="C5" s="5">
-        <v>24.03846153846154</v>
+      <c r="B5">
+        <v>24</v>
+      </c>
+      <c r="C5" s="4">
+        <v>24.489795918367346</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>20</v>
-      </c>
-      <c r="C6" s="5">
-        <v>19.23076923076923</v>
+      <c r="B6">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4">
+        <v>19.387755102040817</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="5">
-        <v>5.7692307692307692</v>
+      <c r="C7" s="4">
+        <v>6.1224489795918364</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4">
+        <v>5.1020408163265305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4">
+        <v>4.0816326530612246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5">
-        <v>5.7692307692307692</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5">
-        <v>4.8076923076923075</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>4</v>
       </c>
-      <c r="C10" s="5">
-        <v>3.8461538461538463</v>
+      <c r="C10" s="4">
+        <v>4.0816326530612246</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>3</v>
       </c>
-      <c r="C11" s="5">
-        <v>2.8846153846153846</v>
+      <c r="C11" s="4">
+        <v>3.0612244897959182</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" s="5">
-        <v>1.9230769230769231</v>
+      <c r="C12" s="4">
+        <v>2.0408163265306123</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="5">
-        <v>0.96153846153846156</v>
+      <c r="C13" s="4">
+        <v>1.0204081632653061</v>
       </c>
     </row>
   </sheetData>
